--- a/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,34 +57,34 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-1.1194321621180021</t>
+    <t>2.09 - x</t>
+  </si>
+  <si>
+    <t>-3.09</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.08752045581389443</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>-0.8805678378819979</t>
-  </si>
-  <si>
-    <t>0.6949971627976752</t>
-  </si>
-  <si>
-    <t>1 + x - y - 9(x^2)</t>
-  </si>
-  <si>
-    <t>1.7407650125976661</t>
-  </si>
-  <si>
-    <t>0.5069075554161596</t>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>-2.09 + x</t>
+  </si>
+  <si>
+    <t>1.0899999999999999</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>41.02289999999999 + x - y - 9(x^2)</t>
+  </si>
+  <si>
+    <t>-40.02289999999999</t>
+  </si>
+  <si>
+    <t>0.58</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -96,73 +96,73 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.570630435780267y + (-0.5 + x)*(y^2)</t>
-  </si>
-  <si>
-    <t>0.21390345020415366</t>
+    <t>22.9596 - 12.084y + (-0.5 + x)*(y^2)</t>
+  </si>
+  <si>
+    <t>-22.9596</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.41442099573459057</t>
-  </si>
-  <si>
-    <t>0.9331079402367507</t>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-1 + 0.10357918697858215y</t>
-  </si>
-  <si>
-    <t>-1.0776542717486295</t>
+    <t>-1.8619999999999999 + 0.49y</t>
+  </si>
+  <si>
+    <t>0.8619999999999999</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.4403218489935702</t>
-  </si>
-  <si>
-    <t>0.12759954762927683</t>
-  </si>
-  <si>
-    <t>-1 + 0.3186820282346654y</t>
-  </si>
-  <si>
-    <t>-1.238918855648638</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.465355066850616</t>
-  </si>
-  <si>
-    <t>0.2856732028454333</t>
-  </si>
-  <si>
-    <t>0.11943216211800217</t>
-  </si>
-  <si>
-    <t>-0.7497092226132909</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.1939084756808926</t>
+    <t>-1.318499999999999</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.9920840277233672</t>
-  </si>
-  <si>
-    <t>0.7764494570764251</t>
+    <t>-83.27484000000001</t>
+  </si>
+  <si>
+    <t>-4.704041999999987</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -695,10 +695,10 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +801,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.8964208130214179</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -39,130 +39,133 @@
     <t>Follower_Expr</t>
   </si>
   <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Function_Evaluation</t>
+  </si>
+  <si>
+    <t>Restriction_Set_Type</t>
+  </si>
+  <si>
+    <t>MIU_value</t>
+  </si>
+  <si>
+    <t>2.89 - x</t>
+  </si>
+  <si>
+    <t>-3.89</t>
+  </si>
+  <si>
+    <t>J_0_g</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>-2.89 + x</t>
+  </si>
+  <si>
+    <t>1.8900000000000001</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>72.5789 + x - y - 9(x^2)</t>
+  </si>
+  <si>
+    <t>-71.5789</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>Lambda_value</t>
+  </si>
+  <si>
+    <t>Beta_value</t>
+  </si>
+  <si>
+    <t>Gamma_value</t>
+  </si>
+  <si>
+    <t>0.21510000000000007 - 1.4340000000000002y + (-0.5 + x)*(y^2)</t>
+  </si>
+  <si>
+    <t>-0.21510000000000007</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>6.8999999999999995</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.07800000000000007 - 0.26y</t>
+  </si>
+  <si>
+    <t>-1.078</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>-1.0476190476190477 + 3.174603174603174y</t>
+  </si>
+  <si>
+    <t>-0.04761904761904767</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Function_Evaluation</t>
-  </si>
-  <si>
-    <t>Restriction_Set_Type</t>
-  </si>
-  <si>
-    <t>MIU_value</t>
-  </si>
-  <si>
-    <t>2.09 - x</t>
-  </si>
-  <si>
-    <t>-3.09</t>
-  </si>
-  <si>
-    <t>J_0_g</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>-2.09 + x</t>
-  </si>
-  <si>
-    <t>1.0899999999999999</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>41.02289999999999 + x - y - 9(x^2)</t>
-  </si>
-  <si>
-    <t>-40.02289999999999</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>Lambda_value</t>
-  </si>
-  <si>
-    <t>Beta_value</t>
-  </si>
-  <si>
-    <t>Gamma_value</t>
-  </si>
-  <si>
-    <t>22.9596 - 12.084y + (-0.5 + x)*(y^2)</t>
-  </si>
-  <si>
-    <t>-22.9596</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-1.8619999999999999 + 0.49y</t>
-  </si>
-  <si>
-    <t>0.8619999999999999</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>0.30000000000000004</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.318499999999999</t>
+    <t>-3.6485968253968246</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-83.27484000000001</t>
-  </si>
-  <si>
-    <t>-4.704041999999987</t>
+    <t>42.63212</t>
+  </si>
+  <si>
+    <t>-17.590300507936508</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -672,10 +675,10 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -683,22 +686,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -724,10 +727,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -745,12 +748,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -768,17 +771,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -796,12 +799,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.51</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,34 +57,34 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>2.89 - x</t>
-  </si>
-  <si>
-    <t>-3.89</t>
+    <t>1.9399999999999995 - x</t>
+  </si>
+  <si>
+    <t>-2.9399999999999995</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>-2.89 + x</t>
-  </si>
-  <si>
-    <t>1.8900000000000001</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>72.5789 + x - y - 9(x^2)</t>
-  </si>
-  <si>
-    <t>-71.5789</t>
-  </si>
-  <si>
-    <t>0.97</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>-1.9399999999999997 + x</t>
+  </si>
+  <si>
+    <t>0.9399999999999997</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>35.63239999999999 + x - y - 9(x^2)</t>
+  </si>
+  <si>
+    <t>-34.63239999999999</t>
+  </si>
+  <si>
+    <t>0.44</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -96,76 +96,70 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>0.21510000000000007 - 1.4340000000000002y + (-0.5 + x)*(y^2)</t>
-  </si>
-  <si>
-    <t>-0.21510000000000007</t>
+    <t>17.688724378109445 - 10.108736318407956y + (-0.5 + x)*(y^2)</t>
+  </si>
+  <si>
+    <t>-17.688724378109445</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>6.8999999999999995</t>
+    <t>0.36</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.07800000000000007 - 0.26y</t>
-  </si>
-  <si>
-    <t>-1.078</t>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>-1.0476190476190477 + 3.174603174603174y</t>
-  </si>
-  <si>
-    <t>-0.04761904761904767</t>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>-16.260845771144275 + 4.278606965174129y</t>
+  </si>
+  <si>
+    <t>14.830845771144274</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.0</t>
+    <t>8.6</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>0.30000000000000004</t>
+    <t>1.9399999999999997</t>
+  </si>
+  <si>
+    <t>3.6999999999999993</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-3.6485968253968246</t>
+    <t>-3.0368159203980096</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>42.63212</t>
-  </si>
-  <si>
-    <t>-17.590300507936508</t>
+    <t>5.99016</t>
+  </si>
+  <si>
+    <t>-1.6439679999999997</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -666,22 +660,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -695,13 +689,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -727,10 +721,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -748,12 +742,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -771,17 +765,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -799,12 +793,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.26</v>
+        <v>2.0100000000000002</v>
       </c>
     </row>
   </sheetData>
